--- a/biology/Botanique/Frank_Ludlow/Frank_Ludlow.xlsx
+++ b/biology/Botanique/Frank_Ludlow/Frank_Ludlow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Ludlow, né le 10 août 1885 à Londres et décédé le 27 mars 1972, est un officier anglais qui fut en poste à la mission britannique à Lhassa et un naturaliste.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ludlow naît à Chelsea et étudie au Sidney Sussex College de l'Université de Cambridge[1] où il obtient un bachelor of arts en sciences naturelles en 1908. Durant cette période, il étudie la botanique sous la direction du professeur Marshal Ward, père de Frank Kingdon-Ward (en). Il suit également des cours au Sind College de Karachi où il devient plus tard principal adjoint, professeur de biologie et lecteur en anglais. Durant la Première Guerre mondiale, il est envoyé au XIXe régiment d'infanterie indien avant de rejoindre le système éducatif indien à la fin de la guerre. Entre 1923 et 1926, il dirige l'école anglaise de Gyantsé au Tibet. L'école ouvre le 8 novembre 1923 avec 30 élèves tibétains, des garçons âgés de 8 à 18 ans, et Ludlow leur enseigne pendant 3 ans l'anglais puis la géographie et l'arithmétique. L'école ferma en novembre 1926, date à laquelle Ludlow quitte le Tibet[2]. Il se met en congé en 1927, part pour Srinagar dans le Cachemire et voyage beaucoup dans l'Himalaya jusqu'au Tibet. En 1929, il rencontre George Sherriff (en) alors qu'il rend visite au consul général Frederick Williamson (en), avec qui il mène de nombreuses expéditions[3]. Il prend ensuite la tête de la mission britannique à Lhassa entre 1942 et 1943.
-Durant son séjour en Inde, Ludlow a étudié l'histoire naturelle et collecté des spécimens botaniques et aviens[1]. Les 7 000 oiseaux qu'il a collecté sont aujourd'hui déposés au Musée d'histoire naturelle de Londres[4]. Les espèces Fulvetta ludlowi[5], Bhutanitis ludlowi et plusieurs autres taxons dont des sous-espèces de hérissons comme Paraechinus aethiopicus ludlowi (trouvable à Hit, en Irak) ont été nommés en son honneur[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludlow naît à Chelsea et étudie au Sidney Sussex College de l'Université de Cambridge où il obtient un bachelor of arts en sciences naturelles en 1908. Durant cette période, il étudie la botanique sous la direction du professeur Marshal Ward, père de Frank Kingdon-Ward (en). Il suit également des cours au Sind College de Karachi où il devient plus tard principal adjoint, professeur de biologie et lecteur en anglais. Durant la Première Guerre mondiale, il est envoyé au XIXe régiment d'infanterie indien avant de rejoindre le système éducatif indien à la fin de la guerre. Entre 1923 et 1926, il dirige l'école anglaise de Gyantsé au Tibet. L'école ouvre le 8 novembre 1923 avec 30 élèves tibétains, des garçons âgés de 8 à 18 ans, et Ludlow leur enseigne pendant 3 ans l'anglais puis la géographie et l'arithmétique. L'école ferma en novembre 1926, date à laquelle Ludlow quitte le Tibet. Il se met en congé en 1927, part pour Srinagar dans le Cachemire et voyage beaucoup dans l'Himalaya jusqu'au Tibet. En 1929, il rencontre George Sherriff (en) alors qu'il rend visite au consul général Frederick Williamson (en), avec qui il mène de nombreuses expéditions. Il prend ensuite la tête de la mission britannique à Lhassa entre 1942 et 1943.
+Durant son séjour en Inde, Ludlow a étudié l'histoire naturelle et collecté des spécimens botaniques et aviens. Les 7 000 oiseaux qu'il a collecté sont aujourd'hui déposés au Musée d'histoire naturelle de Londres. Les espèces Fulvetta ludlowi, Bhutanitis ludlowi et plusieurs autres taxons dont des sous-espèces de hérissons comme Paraechinus aethiopicus ludlowi (trouvable à Hit, en Irak) ont été nommés en son honneur,.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
